--- a/uk-esos-app-web/src/assets/files/Organisation_Structure_Template.xlsx
+++ b/uk-esos-app-web/src/assets/files/Organisation_Structure_Template.xlsx
@@ -5,12 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thenrbgroup-my.sharepoint.com/personal/p70860_nrb_be/Documents/Desktop/ESOS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thenrbgroup-my.sharepoint.com/personal/p70929_nrb_be/Documents/Bureau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{9D559E05-A1DA-42EC-91EA-7EDD6F8E4CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30837DFC-DC9E-4BC7-91B6-A382EA42EE01}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{E5B95BB5-AE4A-45F5-A2BC-FD045A1E17DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5D14437-CC4F-49A7-BAAE-885B415457CD}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="srGKeuB8XcSrrCzj6rqeVFyF6uRek6HPK33Xc87f1Do2b+G16uhwcTQ3BQwBtDyqGPXAmS/XDP78uO5t8bJGoQ==" workbookSaltValue="51AfElLbPbC2We5Rm+8Ueg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14B527F7-5BE8-4F9C-8646-B467C2577599}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{14B527F7-5BE8-4F9C-8646-B467C2577599}"/>
   </bookViews>
   <sheets>
     <sheet name="Organisation Structure" sheetId="1" r:id="rId1"/>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
-  <si>
-    <t>Is this organisation covered in this notification?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Is this organisation part of an arrangement where 2 or more highest UK parent groups are complying as one participant?</t>
   </si>
@@ -50,31 +48,52 @@
     <t>Is this organisation a subsidiary of the responsible undertaking?</t>
   </si>
   <si>
-    <t>Is this organisation part of a franchise group?</t>
-  </si>
-  <si>
-    <t>Is this organisation a trust?</t>
-  </si>
-  <si>
-    <t>Has this organisation ceased to be a part of the corporate group between 31 December 2022 and 5 June 2024?</t>
-  </si>
-  <si>
     <t>Registration Number (if exists, otherwise leave the cell blank)</t>
   </si>
   <si>
     <t>Organisation Name</t>
   </si>
   <si>
-    <t>AB12345</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Company A</t>
+    <t>AA123456</t>
+  </si>
+  <si>
+    <t>Company A (This is an example)</t>
+  </si>
+  <si>
+    <t>SIC</t>
+  </si>
+  <si>
+    <t>Classification name (if other than SIC)</t>
+  </si>
+  <si>
+    <t>Is the Code same as RU?</t>
+  </si>
+  <si>
+    <t>Code 2 (Optional)</t>
+  </si>
+  <si>
+    <t>Code 3 (Optional)</t>
+  </si>
+  <si>
+    <t>Code 4 (Optional)</t>
+  </si>
+  <si>
+    <t>Select classification type if the organisation covered in this NOC</t>
+  </si>
+  <si>
+    <t>Code 1</t>
+  </si>
+  <si>
+    <t>Is this organisation a franchisee?</t>
+  </si>
+  <si>
+    <t>Has this organisation ceased to be part of the highest parent group or participant since the qualification date but agreed to comply as if it were still a member?</t>
   </si>
 </sst>
 </file>
@@ -98,6 +117,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -125,20 +145,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,83 +482,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CE4F0F-8E23-42B7-9079-1A73F27E9561}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="3" customWidth="1"/>
-    <col min="2" max="9" width="21.28515625" style="3" customWidth="1"/>
-    <col min="10" max="11" width="20.5703125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="29.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="21.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="10.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>10</v>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
+        <v>11111</v>
+      </c>
+      <c r="L2" s="3">
+        <v>11112</v>
+      </c>
+      <c r="M2" s="3">
+        <v>11113</v>
+      </c>
+      <c r="N2" s="3">
+        <v>11113</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cM1PK7n7S0i7dPIK6XEDEoKkb9mK2c/gpzMIlRtPveyROnIYGAWpDO33BHCjJ9P8++XH/gYYTAtDxXCoxDcmzQ==" saltValue="Wos2W+KYAyIsKfsZ7s82fw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:I846" xr:uid="{AAFDA02E-460A-4399-A5B7-E538551B3569}">
+  <sheetProtection algorithmName="SHA-512" hashValue="AhLsn84y5LB0MZrQqG9Q7sIwVwi6MF9zasUSWw88NLRJ6rXVZXWXDTXNdS6necXwGh3lYPDumeEl7vTB5aLnzw==" saltValue="5LZ0GRx4jj+b8P0Q+A4Z3Q==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H2121 C2:G40" xr:uid="{1E5F02BD-8EF2-48DC-A99B-401BDCC62835}">
       <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I2099" xr:uid="{E9C995E2-7930-4269-83E2-8B5EE2020283}">
+      <formula1>"SIC,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2100:I1048576" xr:uid="{C5BD3B5E-CD64-4838-8320-277E47CCE751}">
+      <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
